--- a/client/检测/102918959.xlsx
+++ b/client/检测/102918959.xlsx
@@ -58,10 +58,10 @@
     <t>问题：
 不能使用半角符号:_ x 0 0 0 D _;
 只能包含EUC内字符:_ x 0 0 0 D _;
-需要一一对应:0,０:0,０ = 0:3;
-需要一一对应:x,ｘ:x,ｘ = 0:1;
-需要一一对应:D,Ｄ:D,Ｄ = 0:1;
-需要一一对应:_,＿:_,＿ = 0:2</t>
+数量不一致:0,０:0,０ = 0:3;
+数量不一致:x,ｘ:x,ｘ = 0:1;
+数量不一致:D,Ｄ:D,Ｄ = 0:1;
+数量不一致:_,＿:_,＿ = 0:2</t>
   </si>
   <si>
     <t>问题：
@@ -89,11 +89,11 @@
     <t>问题：
 不能使用半角符号:_ x 0 0 0 D _;
 只能包含EUC内字符:_ x 0 0 0 D _;
-需要一一对应:、,、:、,、 = 16:21;
-需要一一对应:0,０:0,０ = 0:3;
-需要一一对应:x,ｘ:x,ｘ = 0:1;
-需要一一对应:D,Ｄ:D,Ｄ = 0:1;
-需要一一对应:_,＿:_,＿ = 0:2</t>
+数量不一致:、,、:、,、 = 16:21;
+数量不一致:0,０:0,０ = 0:3;
+数量不一致:x,ｘ:x,ｘ = 0:1;
+数量不一致:D,Ｄ:D,Ｄ = 0:1;
+数量不一致:_,＿:_,＿ = 0:2</t>
   </si>
   <si>
     <t>0020601</t>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:所述:前記 = 6:5</t>
+数量不一致:所述:前記 = 6:5</t>
   </si>
   <si>
     <t>0020605</t>
@@ -194,7 +194,7 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:所述:前記 = 5:4</t>
+数量不一致:所述:前記 = 5:4</t>
   </si>
   <si>
     <t>0020606</t>
@@ -234,7 +234,7 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:所述:前記 = 2:1</t>
+数量不一致:所述:前記 = 2:1</t>
   </si>
   <si>
     <t>0020608</t>
@@ -310,7 +310,7 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:所述:前記 = 3:2</t>
+数量不一致:所述:前記 = 3:2</t>
   </si>
   <si>
     <t>0020612</t>
@@ -494,7 +494,7 @@
   </si>
   <si>
     <t>问题：
-不能包含NG用语:０ｏ</t>
+NG用语:０ｏ</t>
   </si>
   <si>
     <t>0020623</t>
@@ -1062,12 +1062,12 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:1,１:1,１ = 3:4;
-需要一一对应:2,２:2,２ = 1:2;
-需要一一对应:8,８:8,８ = 1:3;
-需要一一对应:,,，:,,， = 2:5;
-需要一一对应:7,７:7,７ = 0:2;
-需要一一对应:.,。:.,。 = 0:1</t>
+数量不一致:1,１:1,１ = 3:4;
+数量不一致:2,２:2,２ = 1:2;
+数量不一致:8,８:8,８ = 1:3;
+数量不一致:,,，:,,， = 2:5;
+数量不一致:7,７:7,７ = 0:2;
+数量不一致:.,。:.,。 = 0:1</t>
   </si>
   <si>
     <t>0020657</t>
@@ -1087,12 +1087,12 @@
   <si>
     <t>问题：
 译文不能为空;
-需要一一对应:1,１:1,１ = 1:0;
-需要一一对应:2,２:2,２ = 1:0;
-需要一一对应:7,７:7,７ = 2:0;
-需要一一对应:8,８:8,８ = 2:0;
-需要一一对应:,,，:,,， = 3:0;
-需要一一对应:.,。:.,。 = 1:0</t>
+数量不一致:1,１:1,１ = 1:0;
+数量不一致:2,２:2,２ = 1:0;
+数量不一致:7,７:7,７ = 2:0;
+数量不一致:8,８:8,８ = 2:0;
+数量不一致:,,，:,,， = 3:0;
+数量不一致:.,。:.,。 = 1:0</t>
   </si>
   <si>
     <t>0020658</t>
@@ -1114,12 +1114,12 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:1,１:1,１ = 10:15;
-需要一一对应:2,２:2,２ = 2:3;
-需要一一对应:,,，:,,， = 5:8;
-需要一一对应:3,３:3,３ = 0:2;
-需要一一对应:4,４:4,４ = 0:2;
-需要一一对应:.,。:.,。 = 0:1</t>
+数量不一致:1,１:1,１ = 10:15;
+数量不一致:2,２:2,２ = 2:3;
+数量不一致:,,，:,,， = 5:8;
+数量不一致:3,３:3,３ = 0:2;
+数量不一致:4,４:4,４ = 0:2;
+数量不一致:.,。:.,。 = 0:1</t>
   </si>
   <si>
     <t>0020659</t>
@@ -1139,12 +1139,12 @@
   <si>
     <t>问题：
 译文不能为空;
-需要一一对应:1,１:1,１ = 5:0;
-需要一一对应:2,２:2,２ = 1:0;
-需要一一对应:3,３:3,３ = 2:0;
-需要一一对应:4,４:4,４ = 2:0;
-需要一一对应:,,，:,,， = 3:0;
-需要一一对应:.,。:.,。 = 1:0</t>
+数量不一致:1,１:1,１ = 5:0;
+数量不一致:2,２:2,２ = 1:0;
+数量不一致:3,３:3,３ = 2:0;
+数量不一致:4,４:4,４ = 2:0;
+数量不一致:,,，:,,， = 3:0;
+数量不一致:.,。:.,。 = 1:0</t>
   </si>
   <si>
     <t>0020660</t>
@@ -1199,11 +1199,11 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:1,１:1,１ = 6:7;
-需要一一对应:2,２:2,２ = 4:7;
-需要一一对应:3,３:3,３ = 2:4;
-需要一一对应:,,，:,,， = 5:6;
-需要一一对应:.,。:.,。 = 0:1</t>
+数量不一致:1,１:1,１ = 6:7;
+数量不一致:2,２:2,２ = 4:7;
+数量不一致:3,３:3,３ = 2:4;
+数量不一致:,,，:,,， = 5:6;
+数量不一致:.,。:.,。 = 0:1</t>
   </si>
   <si>
     <t>0020663</t>
@@ -1220,11 +1220,11 @@
   <si>
     <t>问题：
 译文不能为空;
-需要一一对应:1,１:1,１ = 1:0;
-需要一一对应:2,２:2,２ = 3:0;
-需要一一对应:3,３:3,３ = 2:0;
-需要一一对应:,,，:,,， = 1:0;
-需要一一对应:.,。:.,。 = 1:0</t>
+数量不一致:1,１:1,１ = 1:0;
+数量不一致:2,２:2,２ = 3:0;
+数量不一致:3,３:3,３ = 2:0;
+数量不一致:,,，:,,， = 1:0;
+数量不一致:.,。:.,。 = 1:0</t>
   </si>
   <si>
     <t>0020664</t>
@@ -1276,12 +1276,12 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:1,１:1,１ = 4:7;
-需要一一对应:3,３:3,３ = 5:10;
-需要一一对应:,,，:,,， = 5:7;
-需要一一对应:0,０:0,０ = 0:2;
-需要一一对应:V,Ｖ:V,Ｖ = 0:3;
-需要一一对应:.,。:.,。 = 0:1</t>
+数量不一致:1,１:1,１ = 4:7;
+数量不一致:3,３:3,３ = 5:10;
+数量不一致:,,，:,,， = 5:7;
+数量不一致:0,０:0,０ = 0:2;
+数量不一致:V,Ｖ:V,Ｖ = 0:3;
+数量不一致:.,。:.,。 = 0:1</t>
   </si>
   <si>
     <t>0020667</t>
@@ -1298,12 +1298,12 @@
   <si>
     <t>问题：
 译文不能为空;
-需要一一对应:0,０:0,０ = 2:0;
-需要一一对应:1,１:1,１ = 3:0;
-需要一一对应:3,３:3,３ = 5:0;
-需要一一对应:V,Ｖ:V,Ｖ = 3:0;
-需要一一对应:,,，:,,， = 2:0;
-需要一一对应:.,。:.,。 = 1:0</t>
+数量不一致:0,０:0,０ = 2:0;
+数量不一致:1,１:1,１ = 3:0;
+数量不一致:3,３:3,３ = 5:0;
+数量不一致:V,Ｖ:V,Ｖ = 3:0;
+数量不一致:,,，:,,， = 2:0;
+数量不一致:.,。:.,。 = 1:0</t>
   </si>
   <si>
     <t>0020668</t>
@@ -1325,11 +1325,11 @@
   </si>
   <si>
     <t>问题：
-需要一一对应:1,１:1,１ = 10:12;
-需要一一对应:2,２:2,２ = 3:4;
-需要一一对应:,,，:,,， = 8:11;
-需要一一对应:6,６:6,６ = 0:1;
-需要一一对应:.,。:.,。 = 0:1</t>
+数量不一致:1,１:1,１ = 10:12;
+数量不一致:2,２:2,２ = 3:4;
+数量不一致:,,，:,,， = 8:11;
+数量不一致:6,６:6,６ = 0:1;
+数量不一致:.,。:.,。 = 0:1</t>
   </si>
   <si>
     <t>0020669</t>
@@ -1346,11 +1346,11 @@
   <si>
     <t>问题：
 译文不能为空;
-需要一一对应:1,１:1,１ = 2:0;
-需要一一对应:2,２:2,２ = 1:0;
-需要一一对应:6,６:6,６ = 1:0;
-需要一一对应:,,，:,,， = 3:0;
-需要一一对应:.,。:.,。 = 1:0</t>
+数量不一致:1,１:1,１ = 2:0;
+数量不一致:2,２:2,２ = 1:0;
+数量不一致:6,６:6,６ = 1:0;
+数量不一致:,,，:,,， = 3:0;
+数量不一致:.,。:.,。 = 1:0</t>
   </si>
   <si>
     <t>0020670</t>
@@ -1575,11 +1575,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1967,10 +1968,10 @@
       <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" t="s">
         <v>13</v>
       </c>
       <c r="O1" t="s">
@@ -2014,10 +2015,10 @@
       <c r="L2" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="N2" t="s">
         <v>21</v>
       </c>
       <c r="O2" t="s">
@@ -2672,10 +2673,10 @@
       <c r="L16" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="3" t="s">
+      <c r="M16" s="4" t="s">
         <v>107</v>
       </c>
-      <c r="N16" s="2" t="s">
+      <c r="N16" t="s">
         <v>28</v>
       </c>
       <c r="O16" t="s">
@@ -2766,10 +2767,10 @@
       <c r="L18" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="N18" s="2" t="s">
+      <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
@@ -3283,10 +3284,10 @@
       <c r="L29" t="s">
         <v>179</v>
       </c>
-      <c r="M29" s="3" t="s">
+      <c r="M29" s="4" t="s">
         <v>180</v>
       </c>
-      <c r="N29" s="2" t="s">
+      <c r="N29" t="s">
         <v>28</v>
       </c>
       <c r="O29" t="s">
@@ -4176,10 +4177,10 @@
       <c r="L48" t="s">
         <v>284</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="4" t="s">
         <v>285</v>
       </c>
-      <c r="N48" s="2" t="s">
+      <c r="N48" t="s">
         <v>28</v>
       </c>
       <c r="O48" t="s">
@@ -4505,10 +4506,10 @@
       <c r="L55" t="s">
         <v>323</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="4" t="s">
         <v>324</v>
       </c>
-      <c r="N55" s="2" t="s">
+      <c r="N55" t="s">
         <v>28</v>
       </c>
       <c r="O55" t="s">

--- a/client/检测/102918959.xlsx
+++ b/client/检测/102918959.xlsx
@@ -58,10 +58,10 @@
     <t>问题：
 不能使用半角符号:_ x 0 0 0 D _;
 只能包含EUC内字符:_ x 0 0 0 D _;
-数量不一致:0,０:0,０ = 0:3;
-数量不一致:x,ｘ:x,ｘ = 0:1;
-数量不一致:D,Ｄ:D,Ｄ = 0:1;
-数量不一致:_,＿:_,＿ = 0:2</t>
+数量不一致:0--0:3;
+数量不一致:x--0:1;
+数量不一致:D--0:1;
+数量不一致:_--0:2</t>
   </si>
   <si>
     <t>问题：
@@ -89,11 +89,11 @@
     <t>问题：
 不能使用半角符号:_ x 0 0 0 D _;
 只能包含EUC内字符:_ x 0 0 0 D _;
-数量不一致:、,、:、,、 = 16:21;
-数量不一致:0,０:0,０ = 0:3;
-数量不一致:x,ｘ:x,ｘ = 0:1;
-数量不一致:D,Ｄ:D,Ｄ = 0:1;
-数量不一致:_,＿:_,＿ = 0:2</t>
+数量不一致:、--16:21;
+数量不一致:0--0:3;
+数量不一致:x--0:1;
+数量不一致:D--0:1;
+数量不一致:_--0:2</t>
   </si>
   <si>
     <t>0020601</t>
@@ -172,7 +172,7 @@
   </si>
   <si>
     <t>问题：
-数量不一致:所述:前記 = 6:5</t>
+数量不一致:所述--6:5</t>
   </si>
   <si>
     <t>0020605</t>
@@ -194,7 +194,7 @@
   </si>
   <si>
     <t>问题：
-数量不一致:所述:前記 = 5:4</t>
+数量不一致:所述--5:4</t>
   </si>
   <si>
     <t>0020606</t>
@@ -234,7 +234,7 @@
   </si>
   <si>
     <t>问题：
-数量不一致:所述:前記 = 2:1</t>
+数量不一致:所述--2:1</t>
   </si>
   <si>
     <t>0020608</t>
@@ -310,7 +310,7 @@
   </si>
   <si>
     <t>问题：
-数量不一致:所述:前記 = 3:2</t>
+数量不一致:所述--3:2</t>
   </si>
   <si>
     <t>0020612</t>
@@ -1062,12 +1062,12 @@
   </si>
   <si>
     <t>问题：
-数量不一致:1,１:1,１ = 3:4;
-数量不一致:2,２:2,２ = 1:2;
-数量不一致:8,８:8,８ = 1:3;
-数量不一致:,,，:,,， = 2:5;
-数量不一致:7,７:7,７ = 0:2;
-数量不一致:.,。:.,。 = 0:1</t>
+数量不一致:1--3:4;
+数量不一致:2--1:2;
+数量不一致:8--1:3;
+数量不一致:,--2:5;
+数量不一致:7--0:2;
+数量不一致:.--0:1</t>
   </si>
   <si>
     <t>0020657</t>
@@ -1087,12 +1087,12 @@
   <si>
     <t>问题：
 译文不能为空;
-数量不一致:1,１:1,１ = 1:0;
-数量不一致:2,２:2,２ = 1:0;
-数量不一致:7,７:7,７ = 2:0;
-数量不一致:8,８:8,８ = 2:0;
-数量不一致:,,，:,,， = 3:0;
-数量不一致:.,。:.,。 = 1:0</t>
+数量不一致:1--1:0;
+数量不一致:2--1:0;
+数量不一致:7--2:0;
+数量不一致:8--2:0;
+数量不一致:,--3:0;
+数量不一致:.--1:0</t>
   </si>
   <si>
     <t>0020658</t>
@@ -1114,12 +1114,12 @@
   </si>
   <si>
     <t>问题：
-数量不一致:1,１:1,１ = 10:15;
-数量不一致:2,２:2,２ = 2:3;
-数量不一致:,,，:,,， = 5:8;
-数量不一致:3,３:3,３ = 0:2;
-数量不一致:4,４:4,４ = 0:2;
-数量不一致:.,。:.,。 = 0:1</t>
+数量不一致:1--10:15;
+数量不一致:2--2:3;
+数量不一致:,--5:8;
+数量不一致:3--0:2;
+数量不一致:4--0:2;
+数量不一致:.--0:1</t>
   </si>
   <si>
     <t>0020659</t>
@@ -1139,12 +1139,12 @@
   <si>
     <t>问题：
 译文不能为空;
-数量不一致:1,１:1,１ = 5:0;
-数量不一致:2,２:2,２ = 1:0;
-数量不一致:3,３:3,３ = 2:0;
-数量不一致:4,４:4,４ = 2:0;
-数量不一致:,,，:,,， = 3:0;
-数量不一致:.,。:.,。 = 1:0</t>
+数量不一致:1--5:0;
+数量不一致:2--1:0;
+数量不一致:3--2:0;
+数量不一致:4--2:0;
+数量不一致:,--3:0;
+数量不一致:.--1:0</t>
   </si>
   <si>
     <t>0020660</t>
@@ -1199,11 +1199,11 @@
   </si>
   <si>
     <t>问题：
-数量不一致:1,１:1,１ = 6:7;
-数量不一致:2,２:2,２ = 4:7;
-数量不一致:3,３:3,３ = 2:4;
-数量不一致:,,，:,,， = 5:6;
-数量不一致:.,。:.,。 = 0:1</t>
+数量不一致:1--6:7;
+数量不一致:2--4:7;
+数量不一致:3--2:4;
+数量不一致:,--5:6;
+数量不一致:.--0:1</t>
   </si>
   <si>
     <t>0020663</t>
@@ -1220,11 +1220,11 @@
   <si>
     <t>问题：
 译文不能为空;
-数量不一致:1,１:1,１ = 1:0;
-数量不一致:2,２:2,２ = 3:0;
-数量不一致:3,３:3,３ = 2:0;
-数量不一致:,,，:,,， = 1:0;
-数量不一致:.,。:.,。 = 1:0</t>
+数量不一致:1--1:0;
+数量不一致:2--3:0;
+数量不一致:3--2:0;
+数量不一致:,--1:0;
+数量不一致:.--1:0</t>
   </si>
   <si>
     <t>0020664</t>
@@ -1276,12 +1276,12 @@
   </si>
   <si>
     <t>问题：
-数量不一致:1,１:1,１ = 4:7;
-数量不一致:3,３:3,３ = 5:10;
-数量不一致:,,，:,,， = 5:7;
-数量不一致:0,０:0,０ = 0:2;
-数量不一致:V,Ｖ:V,Ｖ = 0:3;
-数量不一致:.,。:.,。 = 0:1</t>
+数量不一致:1--4:7;
+数量不一致:3--5:10;
+数量不一致:,--5:7;
+数量不一致:0--0:2;
+数量不一致:V--0:3;
+数量不一致:.--0:1</t>
   </si>
   <si>
     <t>0020667</t>
@@ -1298,12 +1298,12 @@
   <si>
     <t>问题：
 译文不能为空;
-数量不一致:0,０:0,０ = 2:0;
-数量不一致:1,１:1,１ = 3:0;
-数量不一致:3,３:3,３ = 5:0;
-数量不一致:V,Ｖ:V,Ｖ = 3:0;
-数量不一致:,,，:,,， = 2:0;
-数量不一致:.,。:.,。 = 1:0</t>
+数量不一致:0--2:0;
+数量不一致:1--3:0;
+数量不一致:3--5:0;
+数量不一致:V--3:0;
+数量不一致:,--2:0;
+数量不一致:.--1:0</t>
   </si>
   <si>
     <t>0020668</t>
@@ -1325,11 +1325,11 @@
   </si>
   <si>
     <t>问题：
-数量不一致:1,１:1,１ = 10:12;
-数量不一致:2,２:2,２ = 3:4;
-数量不一致:,,，:,,， = 8:11;
-数量不一致:6,６:6,６ = 0:1;
-数量不一致:.,。:.,。 = 0:1</t>
+数量不一致:1--10:12;
+数量不一致:2--3:4;
+数量不一致:,--8:11;
+数量不一致:6--0:1;
+数量不一致:.--0:1</t>
   </si>
   <si>
     <t>0020669</t>
@@ -1346,11 +1346,11 @@
   <si>
     <t>问题：
 译文不能为空;
-数量不一致:1,１:1,１ = 2:0;
-数量不一致:2,２:2,２ = 1:0;
-数量不一致:6,６:6,６ = 1:0;
-数量不一致:,,，:,,， = 3:0;
-数量不一致:.,。:.,。 = 1:0</t>
+数量不一致:1--2:0;
+数量不一致:2--1:0;
+数量不一致:6--1:0;
+数量不一致:,--3:0;
+数量不一致:.--1:0</t>
   </si>
   <si>
     <t>0020670</t>
@@ -1575,12 +1575,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2673,14 +2672,14 @@
       <c r="L16" t="s">
         <v>107</v>
       </c>
-      <c r="M16" s="4" t="s">
+      <c r="M16" s="3" t="s">
         <v>107</v>
       </c>
       <c r="N16" t="s">
         <v>28</v>
       </c>
       <c r="O16" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
@@ -2767,14 +2766,14 @@
       <c r="L18" t="s">
         <v>117</v>
       </c>
-      <c r="M18" s="4" t="s">
+      <c r="M18" s="3" t="s">
         <v>117</v>
       </c>
       <c r="N18" t="s">
         <v>28</v>
       </c>
       <c r="O18" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
@@ -3284,14 +3283,14 @@
       <c r="L29" t="s">
         <v>179</v>
       </c>
-      <c r="M29" s="4" t="s">
+      <c r="M29" s="3" t="s">
         <v>180</v>
       </c>
       <c r="N29" t="s">
         <v>28</v>
       </c>
       <c r="O29" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
@@ -4177,14 +4176,14 @@
       <c r="L48" t="s">
         <v>284</v>
       </c>
-      <c r="M48" s="4" t="s">
+      <c r="M48" s="3" t="s">
         <v>285</v>
       </c>
       <c r="N48" t="s">
         <v>28</v>
       </c>
       <c r="O48" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
@@ -4506,14 +4505,14 @@
       <c r="L55" t="s">
         <v>323</v>
       </c>
-      <c r="M55" s="4" t="s">
+      <c r="M55" s="3" t="s">
         <v>324</v>
       </c>
       <c r="N55" t="s">
         <v>28</v>
       </c>
       <c r="O55" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
